--- a/Hardware/Prototype/thot_C_proto_bom.xlsx
+++ b/Hardware/Prototype/thot_C_proto_bom.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rudy/Projects/thotcon0xC/TC0xC/Hardware/Prototype/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCF4BB-7D51-AD46-B067-F8730B036156}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A40CDD9-A1C8-4B4F-9A4C-2FA1A07E8AFF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5700" yWindow="920" windowWidth="33500" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4620" yWindow="500" windowWidth="33500" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="298">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="302">
   <si>
     <t>Dist. Part #</t>
   </si>
@@ -905,9 +905,6 @@
   </si>
   <si>
     <t>LED-0604</t>
-  </si>
-  <si>
-    <t>R1, R3, R4, R8, R9, R12, R17, R18, R19</t>
   </si>
   <si>
     <t>83T7089</t>
@@ -939,6 +936,21 @@
   </si>
   <si>
     <t>870-31FL3731-QFLS2TR</t>
+  </si>
+  <si>
+    <t>RC0603FR-078R2L</t>
+  </si>
+  <si>
+    <t>13-RC0603FR-078R2LTR-ND</t>
+  </si>
+  <si>
+    <t>8.2 Resitor</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>R1, R3, R4, R8, R9, R12, R17, R18, R19, R20</t>
   </si>
 </sst>
 </file>
@@ -1409,10 +1421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K40"/>
+  <dimension ref="A1:K42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2096,7 +2108,7 @@
         <v>24</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>235</v>
@@ -2314,10 +2326,10 @@
         <v>26</v>
       </c>
       <c r="B27">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>287</v>
+        <v>301</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>178</v>
@@ -2571,7 +2583,7 @@
         <v>229</v>
       </c>
       <c r="F34" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G34" t="s">
         <v>102</v>
@@ -2632,25 +2644,25 @@
         <v>1</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>197</v>
       </c>
       <c r="E36" t="s">
+        <v>289</v>
+      </c>
+      <c r="F36" t="s">
         <v>290</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="H36" s="6" t="s">
+      <c r="I36" s="1" t="s">
         <v>293</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>294</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>246</v>
@@ -2670,10 +2682,10 @@
         <v>247</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F37" t="s">
         <v>296</v>
-      </c>
-      <c r="F37" t="s">
-        <v>297</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>249</v>
@@ -2782,6 +2794,37 @@
       </c>
       <c r="K40" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="E41" t="s">
+        <v>297</v>
+      </c>
+      <c r="F41" t="s">
+        <v>298</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H41" s="5">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
